--- a/biology/Neurosciences/Rameau_communicant_gris/Rameau_communicant_gris.xlsx
+++ b/biology/Neurosciences/Rameau_communicant_gris/Rameau_communicant_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux communicants gris sont 23 paires de petits nerfs reliant les 23 paires de ganglions sympathiques du tronc sympathique aux nerfs spinaux. Ils n'existent qu'au niveau des nerfs cervicaux, des nerfs thoraciques et des trois premiers nerfs lombaires.
 Ils font partie du système nerveux sympathique servant de relais pour les informations entre le tronc sympathique et les organes innervés et sont constitués de fibres non myélinisées.
